--- a/DemoWebShopApp/TestData/DemoWebShopData.xlsx
+++ b/DemoWebShopApp/TestData/DemoWebShopData.xlsx
@@ -38,9 +38,6 @@
     <t>Book</t>
   </si>
   <si>
-    <t>GiftCard</t>
-  </si>
-  <si>
     <t>Electronic</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>MukilaDharshini</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="D6 D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -425,23 +425,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
